--- a/atomica/library/hiv_databook.xlsx
+++ b/atomica/library/hiv_databook.xlsx
@@ -1,23 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/atomica/tests/databooks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\atomica\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9EEABE87-CF5B-ED41-A3E5-B843689C3A81}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71AE1B78-5769-4718-B9E9-AD42A681D256}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="640" windowWidth="16100" windowHeight="9660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="645" windowWidth="16095" windowHeight="9660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Population Definitions" sheetId="1" r:id="rId1"/>
     <sheet name="Stocks" sheetId="2" r:id="rId2"/>
     <sheet name="Flows" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -30,6 +37,18 @@
     <t>Full Name</t>
   </si>
   <si>
+    <t>females</t>
+  </si>
+  <si>
+    <t>Females</t>
+  </si>
+  <si>
+    <t>males</t>
+  </si>
+  <si>
+    <t>Males</t>
+  </si>
+  <si>
     <t>All PLHIV</t>
   </si>
   <si>
@@ -79,18 +98,6 @@
   </si>
   <si>
     <t>Treatment failure rate</t>
-  </si>
-  <si>
-    <t>males</t>
-  </si>
-  <si>
-    <t>Males</t>
-  </si>
-  <si>
-    <t>females</t>
-  </si>
-  <si>
-    <t>Females</t>
   </si>
   <si>
     <t>Time after initiating ART to achieve viral suppression (years)</t>
@@ -101,8 +108,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _k_r_._-;\-* #,##0.00\ _k_r_._-;_-* &quot;-&quot;??\ _k_r_._-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0\ _k_r_._-;\-* #,##0\ _k_r_._-;_-* &quot;-&quot;??\ _k_r_._-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0\ _k_r_._-;\-* #,##0\ _k_r_._-;_-* &quot;-&quot;??\ _k_r_._-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _k_r_._-;\-* #,##0.00\ _k_r_._-;_-* &quot;-&quot;??\ _k_r_._-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -189,7 +196,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -207,7 +214,7 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -847,12 +854,12 @@
       <selection activeCell="A2" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="14.83203125" customWidth="1"/>
+    <col min="1" max="2" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -860,20 +867,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -892,24 +899,24 @@
       <selection activeCell="E2" sqref="E2:E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.5" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" customWidth="1"/>
-    <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="4" max="4" width="3.83203125" customWidth="1"/>
+    <col min="1" max="1" width="53.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="3.85546875" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1">
@@ -922,17 +929,17 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>females</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E2" s="7">
         <v>3390000</v>
@@ -940,17 +947,17 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>males</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E3" s="7">
         <v>2540000</v>
@@ -958,15 +965,15 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1">
@@ -979,17 +986,17 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>females</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E6" s="5">
         <f>72%*E2</f>
@@ -998,17 +1005,17 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>males</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E7" s="5">
         <f>66%*E3</f>
@@ -1017,15 +1024,15 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1">
@@ -1038,17 +1045,17 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>females</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E10" s="5">
         <f>AVERAGE(E6,E14)</f>
@@ -1057,17 +1064,17 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>males</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E11" s="5">
         <f>AVERAGE(E7,E15)</f>
@@ -1076,15 +1083,15 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1">
@@ -1097,17 +1104,17 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>females</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E14" s="5">
         <f>60%*E2</f>
@@ -1116,17 +1123,17 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>males</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E15" s="5">
         <f>43%*E3</f>
@@ -1135,15 +1142,15 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1">
@@ -1156,17 +1163,17 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>females</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E18" s="5">
         <f>51%*E2</f>
@@ -1175,17 +1182,17 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>males</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E19" s="5">
         <f>37%*E3</f>
@@ -1194,15 +1201,15 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1">
@@ -1215,17 +1222,17 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>females</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E22" s="5">
         <f>30%*E2</f>
@@ -1234,17 +1241,17 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>males</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E23" s="5">
         <f>20%*E3</f>
@@ -1351,7 +1358,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22:B23 B18:B19 B14:B15 B10:B11 B6:B7 B2:B3" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B22:B23 B18:B19 B14:B15 B10:B11 B6:B7 B2:B3" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"number"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1370,23 +1377,23 @@
       <selection activeCell="E6" sqref="E6:E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.5" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" customWidth="1"/>
-    <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="4" max="4" width="3.83203125" customWidth="1"/>
+    <col min="1" max="1" width="53.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1">
@@ -1399,17 +1406,17 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>females</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2">
         <f>ROUND(266618*0.8*5/8,0)</f>
@@ -1418,17 +1425,17 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>males</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2">
         <f>ROUND(266618*0.8*3/8,0)</f>
@@ -1437,15 +1444,15 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1">
@@ -1458,17 +1465,17 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>females</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2">
         <v>0.7</v>
@@ -1476,17 +1483,17 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>males</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2">
         <v>1.2</v>
@@ -1494,15 +1501,15 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1">
@@ -1515,17 +1522,17 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>females</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2">
         <f>449080*0.6</f>
@@ -1535,17 +1542,17 @@
       <c r="G10" s="2"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>males</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E11" s="2">
         <f>449080*0.4</f>
@@ -1554,15 +1561,15 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1">
@@ -1575,17 +1582,17 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>females</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E14" s="2">
         <v>0.2</v>
@@ -1593,17 +1600,17 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>males</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E15" s="2">
         <v>0.3</v>
@@ -1611,15 +1618,15 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1">
@@ -1632,17 +1639,17 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>females</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E18" s="4">
         <v>0.2</v>
@@ -1650,17 +1657,17 @@
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>males</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E19" s="4">
         <v>0.3</v>
@@ -1668,15 +1675,15 @@
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1">
@@ -1689,37 +1696,37 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>females</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C22" s="4">
         <v>0.2</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>males</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C23" s="4">
         <v>0.2</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -1823,13 +1830,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10:B11 B2:B3" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B10:B11 B2:B3" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"number"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:B7 B22:B23" xr:uid="{00000000-0002-0000-0200-000002000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B6:B7 B22:B23" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"duration"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18:B19 B14:B15" xr:uid="{00000000-0002-0000-0200-000006000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B18:B19 B14:B15" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>"probability"</formula1>
     </dataValidation>
   </dataValidations>

--- a/atomica/library/hiv_databook.xlsx
+++ b/atomica/library/hiv_databook.xlsx
@@ -1,27 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\atomica\library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romesh.abeysuriya/projects/atomica/atomica/library/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71AE1B78-5769-4718-B9E9-AD42A681D256}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE4AF52-BA3D-C542-B0ED-EC602C957DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="645" windowWidth="16095" windowHeight="9660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="760" windowWidth="21880" windowHeight="15100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Population Definitions" sheetId="1" r:id="rId1"/>
     <sheet name="Stocks" sheetId="2" r:id="rId2"/>
     <sheet name="Flows" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -94,13 +100,13 @@
     <t>Loss-to-follow-up rate</t>
   </si>
   <si>
-    <t>Probability</t>
-  </si>
-  <si>
     <t>Treatment failure rate</t>
   </si>
   <si>
     <t>Time after initiating ART to achieve viral suppression (years)</t>
+  </si>
+  <si>
+    <t>Rate</t>
   </si>
 </sst>
 </file>
@@ -222,7 +228,7 @@
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="48">
+  <dxfs count="24">
     <dxf>
       <fill>
         <patternFill patternType="lightUp">
@@ -249,6 +255,11 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill patternType="lightUp">
           <bgColor rgb="FFFF0000"/>
         </patternFill>
@@ -256,11 +267,6 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
         <patternFill patternType="lightUp">
           <bgColor rgb="FFFF0000"/>
         </patternFill>
@@ -273,6 +279,11 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill patternType="lightUp">
           <bgColor rgb="FFFF0000"/>
         </patternFill>
@@ -316,11 +327,6 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
         <patternFill patternType="lightUp">
           <bgColor rgb="FFFF0000"/>
         </patternFill>
@@ -333,158 +339,14 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill patternType="lightUp">
           <bgColor rgb="FFFF0000"/>
         </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
       </fill>
     </dxf>
     <dxf>
@@ -525,9 +387,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -565,9 +427,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -600,26 +462,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -652,26 +497,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -854,12 +682,12 @@
       <selection activeCell="A2" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="14.85546875" customWidth="1"/>
+    <col min="1" max="2" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -867,7 +695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -875,7 +703,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -895,20 +723,20 @@
   </sheetPr>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="53.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="4" width="3.85546875" customWidth="1"/>
+    <col min="1" max="1" width="53.5" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="3.83203125" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -929,7 +757,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>females</v>
@@ -947,7 +775,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>males</v>
@@ -965,7 +793,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -986,7 +814,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>females</v>
@@ -1005,7 +833,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>males</v>
@@ -1024,7 +852,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -1045,7 +873,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>females</v>
@@ -1064,7 +892,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>males</v>
@@ -1083,7 +911,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -1104,7 +932,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>females</v>
@@ -1123,7 +951,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>males</v>
@@ -1142,7 +970,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -1163,7 +991,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>females</v>
@@ -1182,7 +1010,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>males</v>
@@ -1201,7 +1029,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1222,7 +1050,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>females</v>
@@ -1241,7 +1069,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>males</v>
@@ -1261,100 +1089,52 @@
       <c r="G23" s="2"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C10">
-    <cfRule type="expression" dxfId="47" priority="9">
+  <conditionalFormatting sqref="C2:C3">
+    <cfRule type="expression" dxfId="23" priority="1">
+      <formula>COUNTIF(E2:G2,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="2">
+      <formula>AND(COUNTIF(E2:G2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:C7">
+    <cfRule type="expression" dxfId="21" priority="5">
+      <formula>COUNTIF(E6:G6,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="6">
+      <formula>AND(COUNTIF(E6:G6,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10:C11">
+    <cfRule type="expression" dxfId="19" priority="10">
+      <formula>AND(COUNTIF(E10:G10,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C10)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="9">
       <formula>COUNTIF(E10:G10,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="10">
-      <formula>AND(COUNTIF(E10:G10,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C10)))</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="45" priority="11">
-      <formula>COUNTIF(E11:G11,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="44" priority="12">
-      <formula>AND(COUNTIF(E11:G11,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C11)))</formula>
+  <conditionalFormatting sqref="C14:C15">
+    <cfRule type="expression" dxfId="17" priority="13">
+      <formula>COUNTIF(E14:G14,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="14">
+      <formula>AND(COUNTIF(E14:G14,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C14)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="43" priority="13">
-      <formula>COUNTIF(E14:G14,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="42" priority="14">
-      <formula>AND(COUNTIF(E14:G14,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C14)))</formula>
+  <conditionalFormatting sqref="C18:C19">
+    <cfRule type="expression" dxfId="15" priority="18">
+      <formula>AND(COUNTIF(E18:G18,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C18)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="17">
+      <formula>COUNTIF(E18:G18,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C15">
-    <cfRule type="expression" dxfId="41" priority="15">
-      <formula>COUNTIF(E15:G15,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="40" priority="16">
-      <formula>AND(COUNTIF(E15:G15,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C15)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="39" priority="17">
-      <formula>COUNTIF(E18:G18,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="38" priority="18">
-      <formula>AND(COUNTIF(E18:G18,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C18)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="37" priority="19">
-      <formula>COUNTIF(E19:G19,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="20">
-      <formula>AND(COUNTIF(E19:G19,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C19)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2">
-    <cfRule type="expression" dxfId="35" priority="1">
-      <formula>COUNTIF(E2:G2,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="2">
-      <formula>AND(COUNTIF(E2:G2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22">
-    <cfRule type="expression" dxfId="33" priority="21">
+  <conditionalFormatting sqref="C22:C23">
+    <cfRule type="expression" dxfId="13" priority="22">
+      <formula>AND(COUNTIF(E22:G22,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C22)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="21">
       <formula>COUNTIF(E22:G22,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="32" priority="22">
-      <formula>AND(COUNTIF(E22:G22,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C22)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="31" priority="23">
-      <formula>COUNTIF(E23:G23,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="24">
-      <formula>AND(COUNTIF(E23:G23,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C23)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3">
-    <cfRule type="expression" dxfId="29" priority="3">
-      <formula>COUNTIF(E3:G3,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="4">
-      <formula>AND(COUNTIF(E3:G3,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C6">
-    <cfRule type="expression" dxfId="27" priority="5">
-      <formula>COUNTIF(E6:G6,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="6">
-      <formula>AND(COUNTIF(E6:G6,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C6)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C7">
-    <cfRule type="expression" dxfId="25" priority="7">
-      <formula>COUNTIF(E7:G7,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="8">
-      <formula>AND(COUNTIF(E7:G7,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -1374,18 +1154,18 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E15"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="53.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="4" width="3.85546875" customWidth="1"/>
+    <col min="1" max="1" width="53.5" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="3.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1406,7 +1186,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>females</v>
@@ -1425,7 +1205,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>males</v>
@@ -1444,7 +1224,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -1465,7 +1245,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>females</v>
@@ -1483,7 +1263,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>males</v>
@@ -1501,7 +1281,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -1522,7 +1302,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>females</v>
@@ -1542,7 +1322,7 @@
       <c r="G10" s="2"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>males</v>
@@ -1561,7 +1341,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
@@ -1582,13 +1362,13 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>females</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="3" t="s">
@@ -1600,13 +1380,13 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>males</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="3" t="s">
@@ -1618,9 +1398,9 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>7</v>
@@ -1639,13 +1419,13 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>females</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="3" t="s">
@@ -1657,13 +1437,13 @@
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>males</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="3" t="s">
@@ -1675,9 +1455,9 @@
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>7</v>
@@ -1696,7 +1476,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>females</v>
@@ -1714,7 +1494,7 @@
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>males</v>
@@ -1733,111 +1513,66 @@
       <c r="G23" s="4"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C10">
-    <cfRule type="expression" dxfId="23" priority="13">
+  <conditionalFormatting sqref="C2:C3">
+    <cfRule type="expression" dxfId="11" priority="6">
+      <formula>AND(COUNTIF(E2:G2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C2)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="5">
+      <formula>COUNTIF(E2:G2,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:C7">
+    <cfRule type="expression" dxfId="9" priority="10">
+      <formula>AND(COUNTIF(E6:G6,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C6)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>COUNTIF(E6:G6,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10:C11">
+    <cfRule type="expression" dxfId="7" priority="13">
       <formula>COUNTIF(E10:G10,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="14">
+    <cfRule type="expression" dxfId="6" priority="14">
       <formula>AND(COUNTIF(E10:G10,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C10)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="21" priority="15">
-      <formula>COUNTIF(E11:G11,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="16">
-      <formula>AND(COUNTIF(E11:G11,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C11)))</formula>
+  <conditionalFormatting sqref="C14:C15">
+    <cfRule type="expression" dxfId="5" priority="18">
+      <formula>AND(COUNTIF(E14:G14,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C14)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="17">
+      <formula>COUNTIF(E14:G14,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="19" priority="17">
-      <formula>COUNTIF(E14:G14,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="18">
-      <formula>AND(COUNTIF(E14:G14,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C14)))</formula>
+  <conditionalFormatting sqref="C18:C19">
+    <cfRule type="expression" dxfId="3" priority="21">
+      <formula>COUNTIF(E18:G18,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="22">
+      <formula>AND(COUNTIF(E18:G18,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C18)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C15">
-    <cfRule type="expression" dxfId="17" priority="19">
-      <formula>COUNTIF(E15:G15,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="20">
-      <formula>AND(COUNTIF(E15:G15,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C15)))</formula>
+  <conditionalFormatting sqref="C22:C23">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>COUNTIF(E22:G22,"&lt;&gt;" &amp; "")&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>AND(COUNTIF(E22:G22,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C22)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="15" priority="21">
-      <formula>COUNTIF(E18:G18,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="22">
-      <formula>AND(COUNTIF(E18:G18,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C18)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="13" priority="23">
-      <formula>COUNTIF(E19:G19,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="24">
-      <formula>AND(COUNTIF(E19:G19,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C19)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2">
-    <cfRule type="expression" dxfId="11" priority="5">
-      <formula>COUNTIF(E2:G2,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="6">
-      <formula>AND(COUNTIF(E2:G2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3">
-    <cfRule type="expression" dxfId="9" priority="7">
-      <formula>COUNTIF(E3:G3,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="8">
-      <formula>AND(COUNTIF(E3:G3,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C6">
-    <cfRule type="expression" dxfId="7" priority="9">
-      <formula>COUNTIF(E6:G6,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="10">
-      <formula>AND(COUNTIF(E6:G6,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C6)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C7">
-    <cfRule type="expression" dxfId="5" priority="11">
-      <formula>COUNTIF(E7:G7,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="12">
-      <formula>AND(COUNTIF(E7:G7,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C7)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22">
-    <cfRule type="expression" dxfId="3" priority="1">
-      <formula>COUNTIF(E22:G22,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
-      <formula>AND(COUNTIF(E22:G22,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C22)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="1" priority="3">
-      <formula>COUNTIF(E23:G23,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="4">
-      <formula>AND(COUNTIF(E23:G23,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C23)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="3">
+  <dataValidations count="4">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B10:B11 B2:B3" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"number"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B6:B7 B22:B23" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"duration"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B18:B19 B14:B15" xr:uid="{00000000-0002-0000-0200-000002000000}">
-      <formula1>"probability"</formula1>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B19" xr:uid="{00000000-0002-0000-0200-000002000000}">
+      <formula1>"Rate"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B14:B15 B18" xr:uid="{D4FE1A03-2FB4-C544-A9F2-64E3C28DD479}">
+      <formula1>"Rate"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
